--- a/biology/Botanique/Pitcairnia_feliciana/Pitcairnia_feliciana.xlsx
+++ b/biology/Botanique/Pitcairnia_feliciana/Pitcairnia_feliciana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pitcairnia feliciana est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique de Guinée, la seule de la famille à être originaire d'Afrique sur les quelque 1 700 à 2 000 espèces que celle-ci comporte, toutes originaires d'Amérique. L'épithète spécifique de l'espèce, feliciana, rend hommage à Henri Jacques-Félix (1907–2008), le botaniste français qui a récolté l'espèce le premier en 1937 sur les rochers du mont Gangan à proximité de Kindia[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pitcairnia feliciana est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique de Guinée, la seule de la famille à être originaire d'Afrique sur les quelque 1 700 à 2 000 espèces que celle-ci comporte, toutes originaires d'Amérique. L'épithète spécifique de l'espèce, feliciana, rend hommage à Henri Jacques-Félix (1907–2008), le botaniste français qui a récolté l'espèce le premier en 1937 sur les rochers du mont Gangan à proximité de Kindia.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La spéciation étant survenue il y a 10 millions d'années, la distribution de l'espèce uniquement en Afrique ne peut être expliquée par la séparation des continents sud-américain et africain, bien plus ancienne. L'espèce aurait pu être amenée « accidentellement » par les oiseaux migrateurs en provenance d'Amérique du Sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La spéciation étant survenue il y a 10 millions d'années, la distribution de l'espèce uniquement en Afrique ne peut être expliquée par la séparation des continents sud-américain et africain, bien plus ancienne. L'espèce aurait pu être amenée « accidentellement » par les oiseaux migrateurs en provenance d'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Pitcairnia feliciana » (voir la liste des auteurs).</t>
         </is>
